--- a/data/trans_dic/P22$concerEmp-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerEmp-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,32</t>
+          <t>0,84; 3,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,63</t>
+          <t>0,46; 2,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,45</t>
+          <t>0,48; 3,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,13</t>
+          <t>0,84; 3,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,41</t>
+          <t>0,33; 3,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,9</t>
+          <t>0,59; 3,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,22</t>
+          <t>0,25; 2,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,53</t>
+          <t>0,63; 2,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,72</t>
+          <t>0,89; 2,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,48</t>
+          <t>0,69; 2,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,57</t>
+          <t>0,58; 2,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,55</t>
+          <t>0,91; 2,57</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,26</t>
+          <t>1,0; 4,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,19</t>
+          <t>1,8; 5,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,29</t>
+          <t>0,51; 3,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,38</t>
+          <t>1,57; 5,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,92</t>
+          <t>0,96; 4,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,07</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,97</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,64</t>
+          <t>0,54; 2,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,43</t>
+          <t>1,25; 3,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,68</t>
+          <t>1,28; 3,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,01</t>
+          <t>0,46; 2,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,53</t>
+          <t>1,35; 3,52</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,16</t>
+          <t>1,55; 4,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,88</t>
+          <t>0,44; 1,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,65</t>
+          <t>0,25; 2,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,32 +1035,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,51</t>
+          <t>0,0; 3,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,75</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,2</t>
+          <t>1,17; 3,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,43</t>
+          <t>0,23; 1,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,19</t>
+          <t>0,33; 2,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,38</t>
+          <t>1,46; 3,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,92</t>
+          <t>0,59; 1,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,94</t>
+          <t>0,09; 0,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,72</t>
+          <t>0,35; 2,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,27</t>
+          <t>0,13; 1,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,12; 1,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,53</t>
+          <t>0,25; 1,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,02</t>
+          <t>0,16; 1,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,4</t>
+          <t>1,15; 2,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,36</t>
+          <t>0,5; 1,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,91</t>
+          <t>0,22; 0,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,3</t>
+          <t>0,36; 1,25</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,37</t>
+          <t>1,87; 6,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,97</t>
+          <t>0,0; 0,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,37 +1300,37 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,54</t>
+          <t>0,55; 3,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,77</t>
+          <t>0,0; 0,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,6</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,69</t>
+          <t>0,08; 0,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,58</t>
+          <t>0,88; 2,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,46</t>
+          <t>0,0; 0,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,5</t>
+          <t>0,35; 1,46</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1435,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,12 +1445,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,54</t>
+          <t>0,0; 0,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,58</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,27 +1460,27 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,39</t>
+          <t>0,12; 1,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,39</t>
+          <t>0,0; 0,45</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 0,52</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,51</t>
         </is>
       </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,51</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,99</t>
+          <t>0,08; 1,06</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,8</t>
+          <t>1,76; 2,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,59</t>
+          <t>0,82; 1,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,95</t>
+          <t>0,32; 0,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,97</t>
+          <t>0,95; 1,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,83</t>
+          <t>0,33; 0,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
+          <t>0,2; 0,6</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
           <t>0,2; 0,61</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 0,59</t>
-        </is>
-      </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,97</t>
+          <t>0,44; 0,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,69</t>
+          <t>1,11; 1,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 0,98</t>
+          <t>0,57; 0,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,65</t>
+          <t>0,32; 0,68</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,31</t>
+          <t>0,77; 1,33</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguro Médico concertado por su empresa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8649</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6831</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9227</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4114</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5132</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2932</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6063</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12763</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10362</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9763</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15291</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3963; 16242</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2013; 11528</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2055; 14432</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4225; 16901</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1020; 9676</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1870; 11895</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>876; 8578</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2806; 11608</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6904; 21710</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5172; 19074</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4510; 19080</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8678; 24492</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8140</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14361</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5512</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13917</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7669</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1887</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5215</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15809</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16384</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7399</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19133</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3672; 16320</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7536; 24600</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1934; 12661</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7122; 23448</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3560; 15032</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6303</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6104</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2069; 10591</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9230; 25843</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9653; 28519</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3413; 15608</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11271; 29354</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14263</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5930</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7943</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1349</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14263</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5930</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2673</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9292</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8393; 23263</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2797; 12027</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8292</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1661; 18015</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2038</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5103</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4188</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8324; 22894</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2084; 11951</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9906</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2738; 18589</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>28853</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12971</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8764</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3094</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2933</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6065</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5131</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>31948</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>15904</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9816</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13895</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>17998; 41270</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6788; 22208</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>982; 10456</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3596; 20749</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>943; 9358</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>946; 7976</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2050; 12275</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1577; 10069</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>22340; 47095</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9639; 26299</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4325; 17282</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>7259; 25140</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12451</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7929</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2323</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2234</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14775</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>10163</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6568; 22434</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4490</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1993</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2603; 16809</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8035</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4614</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5224</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>687; 6224</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8102; 24745</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6216</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4440</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4616; 19193</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3206</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3206</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4892</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5671</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4080</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5101</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7054</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2092</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>881; 11464</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6942</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7115</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7009</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>814; 10581</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>73335</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>39387</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>19148</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>47780</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>18219</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>13076</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>12787</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>23200</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>91553</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>52463</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>31935</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>70980</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>57455; 90484</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>28157; 54666</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>10866; 30587</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>32187; 64730</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>11161; 27842</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>6927; 21178</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6972; 21612</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>15862; 33788</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>73436; 111681</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>39671; 68517</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>21848; 46798</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>53629; 92574</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P22$concerEmp-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerEmp-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
